--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>test</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>test2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -369,22 +373,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:D7"/>
+  <dimension ref="D5:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -400,7 +409,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -413,7 +422,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
